--- a/rank-result.xlsx
+++ b/rank-result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="4320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t xml:space="preserve">sfe_bfs_pra                        </t>
   </si>
@@ -90,89 +90,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rankSFE-10</t>
+    <t xml:space="preserve">actedIn                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dealsWith                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">diedIn                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">graduatedFrom                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">happenedIn                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasCapital                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasChild                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasNeighbor                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasOfficialLanguage                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasWonPrize                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">influence                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isAffiliatedTo                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isCitizenOf                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isConnectedTo                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isLeaderOf                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isLocatedIn                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isMarriedTo                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">livesIn                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">own                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">participatedIn                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">playsFor                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasBornIn                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worksAt                                                    </t>
+  </si>
+  <si>
+    <t>rankSFE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rankPRA-10</t>
+    <t>SFE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SFE-10</t>
+    <t>rankPRA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRA-10</t>
+    <t>PRA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">actedIn                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dealsWith                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">diedIn                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">graduatedFrom                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">happenedIn                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasCapital                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasChild                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasNeighbor                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasOfficialLanguage                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasWonPrize                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">influence                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isAffiliatedTo                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isCitizenOf                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isConnectedTo                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isLeaderOf                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isLocatedIn                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isMarriedTo                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">livesIn                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">own                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">participatedIn                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">playsFor                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasBornIn                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">worksAt                                                    </t>
+    <t>1：4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -180,7 +184,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -236,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,8 +256,17 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -726,100 +739,125 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B20" s="4">
         <v>0.80679999999999996</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C20" s="4">
         <v>0.80059999999999998</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D20" s="4">
         <v>0.70309999999999995</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E20" s="4">
         <v>0.69350000000000001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F20" s="4">
         <v>0.4733</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G20" s="4">
         <v>0.46910000000000002</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H20" s="4">
         <v>0.30830000000000002</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I20" s="4">
         <v>0.31269999999999998</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J20" s="2">
         <v>0.31269999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
         <v>0.97829999999999995</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E21" s="4">
         <v>0.97829999999999995</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F21" s="4">
         <v>0.91949999999999998</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G21" s="4">
         <v>0.8962</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H21" s="4">
         <v>0.90480000000000005</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I21" s="4">
         <v>0.9214</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J21" s="2">
         <v>0.9214</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -856,7 +894,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5">
         <v>0.79252999999999996</v>
@@ -873,7 +911,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5">
         <v>0.53420999999999996</v>
@@ -890,7 +928,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5">
         <v>0.91110000000000002</v>
@@ -907,7 +945,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5">
         <v>0.65608</v>
@@ -924,7 +962,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5">
         <v>0.64697000000000005</v>
@@ -941,7 +979,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5">
         <v>0.95735999999999999</v>
@@ -958,7 +996,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5">
         <v>0.95833000000000002</v>
@@ -975,7 +1013,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5">
         <v>0.76634000000000002</v>
@@ -992,7 +1030,7 @@
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5">
         <v>0.54544999999999999</v>
@@ -1009,7 +1047,7 @@
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>0.56422000000000005</v>
@@ -1026,7 +1064,7 @@
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -1043,7 +1081,7 @@
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5">
         <v>0.96448</v>
@@ -1060,7 +1098,7 @@
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5">
         <v>0.84089999999999998</v>
@@ -1077,7 +1115,7 @@
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5">
         <v>0.69472</v>
@@ -1094,7 +1132,7 @@
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5">
         <v>0.94477</v>
@@ -1111,7 +1149,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5">
         <v>0.95335000000000003</v>
@@ -1128,7 +1166,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5">
         <v>0.88427</v>
@@ -1145,7 +1183,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5">
         <v>0.80798000000000003</v>
@@ -1162,7 +1200,7 @@
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -1179,7 +1217,7 @@
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5">
         <v>0.67430999999999996</v>
@@ -1196,7 +1234,7 @@
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5">
         <v>0.99467000000000005</v>
@@ -1213,7 +1251,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5">
         <v>0.95906999999999998</v>
@@ -1230,7 +1268,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" s="5">
         <v>0.50527999999999995</v>
@@ -1255,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
@@ -1281,7 +1319,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5">
         <v>0.79252999999999996</v>
@@ -1298,7 +1336,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5">
         <v>0.53420999999999996</v>
@@ -1315,7 +1353,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5">
         <v>0.91110000000000002</v>
@@ -1332,7 +1370,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5">
         <v>0.65608</v>
@@ -1349,7 +1387,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>0.95833000000000002</v>
@@ -1366,7 +1404,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5">
         <v>0.76634000000000002</v>
@@ -1383,7 +1421,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5">
         <v>0.84089999999999998</v>
@@ -1400,7 +1438,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5">
         <v>0.69472</v>
@@ -1417,7 +1455,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5">
         <v>0.94477</v>
@@ -1434,7 +1472,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5">
         <v>0.95335000000000003</v>
@@ -1451,7 +1489,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5">
         <v>0.88427</v>
@@ -1468,7 +1506,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5">
         <v>0.80798000000000003</v>
@@ -1485,7 +1523,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5">
         <v>0.95906999999999998</v>
@@ -1502,7 +1540,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B15" s="5">
         <v>0.50527999999999995</v>

--- a/rank-result.xlsx
+++ b/rank-result.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t xml:space="preserve">sfe_bfs_pra                        </t>
   </si>
@@ -62,120 +62,258 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rankPRA-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankSFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankPRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRA-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFE-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">actedIn                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dealsWith                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">diedIn                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">graduatedFrom                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">happenedIn                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasCapital                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasChild                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasNeighbor                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasOfficialLanguage                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasWonPrize                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">influence                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isAffiliatedTo                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isCitizenOf                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isConnectedTo                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isLeaderOf                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isLocatedIn                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isMarriedTo                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">livesIn                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">own                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">participatedIn                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">playsFor                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasBornIn                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worksAt                                                    </t>
+  </si>
+  <si>
+    <t>rankSFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankPRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankSFE</t>
+  </si>
+  <si>
+    <t>PRA</t>
+  </si>
+  <si>
+    <t>PRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>rankSFE-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rankPRA-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rankSFE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>SFE</t>
+  </si>
+  <si>
     <t>rankPRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRA-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFE-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">actedIn                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dealsWith                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">diedIn                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">graduatedFrom                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">happenedIn                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasCapital                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasChild                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasNeighbor                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasOfficialLanguage                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasWonPrize                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">influence                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isAffiliatedTo                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isCitizenOf                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isConnectedTo                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isLeaderOf                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isLocatedIn                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isMarriedTo                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">livesIn                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">own                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">participatedIn                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">playsFor                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasBornIn                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">worksAt                                                    </t>
-  </si>
-  <si>
-    <t>rankSFE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankPRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：4</t>
+  </si>
+  <si>
+    <t>actedIn</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>dealsWith</t>
+  </si>
+  <si>
+    <t>diedIn</t>
+  </si>
+  <si>
+    <t>directed</t>
+  </si>
+  <si>
+    <t>edited</t>
+  </si>
+  <si>
+    <t>exports</t>
+  </si>
+  <si>
+    <t>graduatedFrom</t>
+  </si>
+  <si>
+    <t>happenedIn</t>
+  </si>
+  <si>
+    <t>hasAcademicAdvisor</t>
+  </si>
+  <si>
+    <t>hasCapital</t>
+  </si>
+  <si>
+    <t>hasChild</t>
+  </si>
+  <si>
+    <t>hasCurrency</t>
+  </si>
+  <si>
+    <t>hasGender</t>
+  </si>
+  <si>
+    <t>hasMusicalRole</t>
+  </si>
+  <si>
+    <t>hasNeighbor</t>
+  </si>
+  <si>
+    <t>hasOfficialLanguage</t>
+  </si>
+  <si>
+    <t>hasWebsite</t>
+  </si>
+  <si>
+    <t>hasWonPrize</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>influences</t>
+  </si>
+  <si>
+    <t>isAffiliatedTo</t>
+  </si>
+  <si>
+    <t>isCitizenOf</t>
+  </si>
+  <si>
+    <t>isConnectedTo</t>
+  </si>
+  <si>
+    <t>isInterestedIn</t>
+  </si>
+  <si>
+    <t>isKnownFor</t>
+  </si>
+  <si>
+    <t>isLeaderOf</t>
+  </si>
+  <si>
+    <t>isLocatedIn</t>
+  </si>
+  <si>
+    <t>isMarriedTo</t>
+  </si>
+  <si>
+    <t>isPoliticianOf</t>
+  </si>
+  <si>
+    <t>livesIn</t>
+  </si>
+  <si>
+    <t>owns</t>
+  </si>
+  <si>
+    <t>participatedIn</t>
+  </si>
+  <si>
+    <t>playsFor</t>
+  </si>
+  <si>
+    <t>wasBornIn</t>
+  </si>
+  <si>
+    <t>worksAt</t>
+  </si>
+  <si>
+    <t>wroteMusicFor</t>
+  </si>
+  <si>
+    <t>MAP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,16 +340,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -234,13 +393,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4BACC6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4BACC6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4BACC6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4BACC6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,13 +446,22 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -283,6 +479,2110 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rankSFE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.80679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rankPRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.80059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SFE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.70309999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97829999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.69350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97829999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="334880784"/>
+        <c:axId val="334885824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="334880784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334885824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="334885824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334880784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rankSFE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>MAP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>MRR</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$20:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.4733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91949999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rankPRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>MAP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>MRR</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$20:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.46910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SFE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>MAP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>MRR</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$20:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.30830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90480000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>MAP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>MRR</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$20:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.31269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="337900208"/>
+        <c:axId val="337894048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="337900208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337894048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="337894048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337900208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,7 +2851,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -559,15 +2859,21 @@
     <col min="1" max="1" width="24.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -577,8 +2883,17 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.91949999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -588,8 +2903,17 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.8962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -599,8 +2923,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.90480000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -610,8 +2943,17 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.9214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -622,7 +2964,7 @@
         <v>0.97829999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -633,7 +2975,7 @@
         <v>0.97829999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -644,13 +2986,13 @@
         <v>0.97829999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="D10" s="1">
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -664,9 +3006,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>0.80679999999999996</v>
@@ -681,9 +3023,9 @@
         <v>0.91949999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>0.80059999999999998</v>
@@ -698,7 +3040,7 @@
         <v>0.8962</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -715,9 +3057,9 @@
         <v>0.90480000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>0.69350000000000001</v>
@@ -732,7 +3074,7 @@
         <v>0.9214</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -746,47 +3088,47 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6">
+      <c r="B18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -861,12 +3203,13 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E24"/>
@@ -875,417 +3218,1225 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:12" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.79252999999999996</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.76951999999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.74512999999999996</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.69404999999999994</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.33789999999999998</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.62519999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.79252999999999996</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.76951999999999998</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.74512999999999996</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.69404999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="2">
+        <v>0.53420999999999996</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.55711999999999995</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.42351</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.40732000000000002</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.25230000000000002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.31280000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.53420999999999996</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.55711999999999995</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.42351</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.40732000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="2">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.91361000000000003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.82313000000000003</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.82282</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.1729</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.1411</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.1265</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.15720000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.91361000000000003</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.82313000000000003</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.82282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="2">
+        <v>0.65608</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.66954999999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.46317999999999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.39802999999999999</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.36580000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.37590000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.60350000000000004</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.61380000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.65608</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.66954999999999998</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.46317999999999998</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.39802999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="2">
+        <v>0.64697000000000005</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.62151000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.56686999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.64697000000000005</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.62151000000000001</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.56686999999999999</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.54659999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="2">
+        <v>0.95735999999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.9607</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.90432000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.87836999999999998</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.49209999999999998</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.71530000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.95735999999999999</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.9607</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.90432000000000001</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.87836999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="2">
+        <v>0.95833000000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.95833000000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.91666999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.91666999999999998</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.95833000000000002</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.95833000000000002</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.91666999999999998</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.91666999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="2">
+        <v>0.76634000000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.78183000000000002</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.68998999999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.75061</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.2646</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.27260000000000001</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.5726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.76634000000000002</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.78183000000000002</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.68998999999999999</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.75061</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="2">
+        <v>0.54544999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.54544999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.56096999999999997</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.50483</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.41089999999999999</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.57969999999999999</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.58240000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.54544999999999999</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.54544999999999999</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.56096999999999997</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.50483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="2">
+        <v>0.56422000000000005</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.55962000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.31466</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.2167</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.45129999999999998</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.46050000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.56422000000000005</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.55962000000000001</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.30959999999999999</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.31466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.73040000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="2">
+        <v>0.96448</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.96431</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.92817000000000005</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.92635000000000001</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.50780000000000003</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.66739999999999999</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.67569999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.83975999999999995</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.64998999999999996</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.63453000000000004</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.2452</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.38340000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.69472</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.69313999999999998</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.38195000000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.35953000000000002</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4.02E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>4.0099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.94477</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.84989000000000003</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.71723000000000003</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.79013999999999995</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.95335000000000003</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.94916999999999996</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.86133999999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.85636999999999996</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.4385</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.51980000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.88427</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.87517999999999996</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.81181999999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.78842999999999996</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.188</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.314</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.29820000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.80798000000000003</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.78942000000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.67269000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.68960999999999995</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.96448</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.96431</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.92817000000000005</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.92635000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.84089999999999998</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.83975999999999995</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.64998999999999996</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.63453000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.69472</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.69313999999999998</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.38195000000000001</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.35953000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.94477</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.84989000000000003</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.71723000000000003</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.79013999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.95335000000000003</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.94916999999999996</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.86133999999999999</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.85636999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.88427</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.87517999999999996</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.81181999999999999</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.78842999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.80798000000000003</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.78942000000000001</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.67269000000000001</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.68960999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="H20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="2">
+        <v>0.67430999999999996</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.69813000000000003</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.47364000000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.45839000000000002</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="5">
-        <v>0.67430999999999996</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.69813000000000003</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.47364000000000001</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.45839000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="2">
+        <v>0.99467000000000005</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.99468999999999996</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.98906000000000005</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.9889</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.29459999999999997</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.29320000000000002</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.57709999999999995</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.58360000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="5">
-        <v>0.99467000000000005</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.99468999999999996</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.98906000000000005</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.9889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="2">
+        <v>0.95906999999999998</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.84018999999999999</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="5">
-        <v>0.95906999999999998</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0.85409999999999997</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.84018999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="B24" s="2">
         <v>0.50527999999999995</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>0.46589999999999998</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2">
         <v>0.42703999999999998</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="2">
         <v>0.38425999999999999</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.29430000000000001</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.66620000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.69979999999999998</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.70009999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.1043</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.1613</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.1774</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.1968</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.20150000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.4103</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.42359999999999998</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.58919999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.5665</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.5736</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.69359999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.43290000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.3543</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.35870000000000002</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.56140000000000001</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.56179999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.43440000000000001</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.4385</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.6734</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.2898</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.29570000000000002</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.42770000000000002</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.43340000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.40010000000000001</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.7107</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="8:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.23430000000000001</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.2281</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.50219999999999998</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.50139999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="8:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.3488</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.61439999999999995</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.61609999999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K2:K38">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{463AB509-BAFD-42E8-BAB5-6A6F297CBF08}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I38">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{927E2C3C-84A8-4C12-A758-C4C2A8A54834}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J38">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{26460BA3-4BB7-4234-A22B-ECE6D96529BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L38">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2EDA1B80-E79E-4128-8310-B912CA1EFE25}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D24">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1C6D0545-F523-45A8-ACBF-B71D88E6FB62}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B24">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4DD40AE4-F8F9-4D01-8784-10A29676B83B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C24">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7D38601B-3BA7-41EC-AA8C-6AC4A6267B73}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E24">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F67F649-6024-447D-A4D0-C00D41F3D425}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{463AB509-BAFD-42E8-BAB5-6A6F297CBF08}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K2:K38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{927E2C3C-84A8-4C12-A758-C4C2A8A54834}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I2:I38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{26460BA3-4BB7-4234-A22B-ECE6D96529BA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2:J38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2EDA1B80-E79E-4128-8310-B912CA1EFE25}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L2:L38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1C6D0545-F523-45A8-ACBF-B71D88E6FB62}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4DD40AE4-F8F9-4D01-8784-10A29676B83B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7D38601B-3BA7-41EC-AA8C-6AC4A6267B73}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F67F649-6024-447D-A4D0-C00D41F3D425}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1294,32 +4445,34 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5">
         <v>0.79252999999999996</v>
@@ -1336,7 +4489,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <v>0.53420999999999996</v>
@@ -1353,7 +4506,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>0.91110000000000002</v>
@@ -1370,7 +4523,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5">
         <v>0.65608</v>
@@ -1387,7 +4540,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>0.95833000000000002</v>
@@ -1404,7 +4557,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>0.76634000000000002</v>
@@ -1421,7 +4574,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5">
         <v>0.84089999999999998</v>
@@ -1438,7 +4591,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5">
         <v>0.69472</v>
@@ -1455,7 +4608,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5">
         <v>0.94477</v>
@@ -1472,7 +4625,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5">
         <v>0.95335000000000003</v>
@@ -1489,7 +4642,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5">
         <v>0.88427</v>
@@ -1506,7 +4659,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5">
         <v>0.80798000000000003</v>
@@ -1523,7 +4676,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="5">
         <v>0.95906999999999998</v>
@@ -1540,7 +4693,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="5">
         <v>0.50527999999999995</v>

--- a/rank-result.xlsx
+++ b/rank-result.xlsx
@@ -488,10 +488,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -518,7 +518,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="58000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -572,7 +574,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="86000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -626,7 +630,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent1">
+                <a:tint val="86000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -680,8 +686,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent1">
+                <a:tint val="58000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -729,11 +735,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="199"/>
-        <c:axId val="334880784"/>
-        <c:axId val="334885824"/>
+        <c:axId val="203306144"/>
+        <c:axId val="203306704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="334880784"/>
+        <c:axId val="203306144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +782,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334885824"/>
+        <c:crossAx val="203306704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,9 +790,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334885824"/>
+        <c:axId val="203306704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -849,7 +856,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334880784"/>
+        <c:crossAx val="203306144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -975,10 +982,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1005,7 +1012,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1056,7 +1065,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1107,8 +1116,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent1">
+                <a:tint val="77000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1160,8 +1169,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent1">
+                <a:tint val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1198,7 +1207,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1207,11 +1215,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="199"/>
-        <c:axId val="337900208"/>
-        <c:axId val="337894048"/>
+        <c:axId val="203311744"/>
+        <c:axId val="203312304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337900208"/>
+        <c:axId val="203311744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1262,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337894048"/>
+        <c:crossAx val="203312304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1262,7 +1270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337894048"/>
+        <c:axId val="203312304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1335,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337900208"/>
+        <c:crossAx val="203311744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1447,76 +1455,14 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
@@ -2561,9 +2507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
